--- a/Assets/04ExcelData/ChatTable.xlsx
+++ b/Assets/04ExcelData/ChatTable.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksuw\Desktop\UnityProject\StarLightPostMan\Assets\04ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Desktop\a\TeamPro\Assets\04ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C40A5D7-E4A4-4190-8BC8-C5534272DF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD1899FC-717E-4655-B76E-1028BD74F242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0A7A3A9F-5435-4295-936F-C40ED5633A40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A7A3A9F-5435-4295-936F-C40ED5633A40}"/>
   </bookViews>
   <sheets>
-    <sheet name="Story" sheetId="1" r:id="rId1"/>
-    <sheet name="FindDevil" sheetId="4" r:id="rId2"/>
+    <sheet name="ContaminatedMushrooms" sheetId="5" r:id="rId1"/>
+    <sheet name="Virus" sheetId="7" r:id="rId2"/>
+    <sheet name="MysteriousTree" sheetId="9" r:id="rId3"/>
+    <sheet name="DollClawMachine" sheetId="10" r:id="rId4"/>
+    <sheet name="RabbitDoll" sheetId="11" r:id="rId5"/>
+    <sheet name="FoodTruck" sheetId="12" r:id="rId6"/>
+    <sheet name="FallenLeaves" sheetId="13" r:id="rId7"/>
+    <sheet name="Log" sheetId="15" r:id="rId8"/>
+    <sheet name="RumiHouse" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,22 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>솔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕 나는 아우솔이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당연하지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,43 +55,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/stell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저건.. 뭐지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/devil1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I'm devil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무슨 말인지 모르겠어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/devil2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끼에엑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해치운 것 같아</t>
+    <t>이건… 루미가 겪었던 고통이 숲에 스며든 거야.
+버섯이 이렇게까지 오염됐을 정도라면 마음속에 두려움이 얼마나 가득했을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별의 정령 : 솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루미는 정말 오랫동안 그 고통 속에서 홀로 버텨왔을 거야.
+우리가 편지를 전하면… 이제 편히 쉴 수 있을지 몰라, 서두르자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 숲을 오염시킨 바이러스야!
+루미를 괴롭혔던 불치병이 실체화된 건가 봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 나무... 이런 환경 속에서도 혼자 생기를 유지하고 있어.
+아마 루미가 마음이 약해질 때마다, 조용히 의지했던 희망이 표현된 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희망은 아주 작아도, 마음을 버티게 해 주는 원동력이야.
+과연 루미에게 그 희망은 무엇이었을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루미가 항상 들고 다니던 토끼 인형 기억나?
+아마 여기서 뽑았었나 봐.
+그저 작은 인형일 뿐이지만, 루미에게는 둘도 없는 친구가 되어 주었겠지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마가 곁에 없을 때, 이 인형이 루미의 마음을 지켜줬겠지,
+루미는 그렇게 외로운 시간을 견뎌 왔을 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 루미가 홀로 엄마를 기다리던 공원인가 봐,
+어? 저건 루미가 아끼는 인형 아니야?
+루미가 느꼈던 쓸쓸함이 저렇게 형상화 됐나 봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 인형은 루미의 외로움이 고스란히 담긴 기억일지도 몰라.
+다시 깨끗하고 따듯했던 모습으로 되돌려주자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 루미가 아프기 전 엄마랑 자주 오던 푸드 트럭이야.
+루미는 이 곳에서 엄마랑 함께 웃고, 맛있는 음식을 먹으며 짧지만 반짝이는 시간을 보냈던 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그땐 너무 당연했던 순간들...
+지금은 마음 깊숙이 간직된 그리움이 되어버렸겠지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 길... 원래는 루미의 엄마가 매일 쓸던 곳이래.
+루미가 편하게 다닐 수 있도록 깔끔하고 정성스럽게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 지금은 이렇게...
+루미가 떠난 후, 그 손길도 함께 멈춰버린 거겠지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기 봐! 통나무가 굴러 떨어지고 있어!
+마치 루미가 떠난 뒤 무너져 내린 루미 엄마의 마음이 저렇게 표현된 것 같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아픔을 이겨내야 다시 앞으로 나아갈 수 있어.
+루미의 미련은 바로 남겨진 엄마의 행복이었던 거야!
+어서 루미의 마음과 용기를 전하러 가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 도착했다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기가... 루미가 가장 사랑했던 곳이야.
+엄마와 함께 오래오래 웃으며 살고 싶었던 작지만 따듯한 집.
+자 이제 루미의 전하지 못한 마음을 전달하자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,9 +190,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,89 +510,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC066B23-98C4-498D-AE71-E663F397EC84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7F7EB6-7D3A-4E3D-B3AC-C8D2693EC301}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994D6144-C4FB-4E81-9067-67B6CE00B143}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9CC6CA-8AAB-4C7D-BDE2-0591DFECFD3D}">
-  <dimension ref="A1:D7"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19A1D2A-F322-4AC3-A494-724E0704E1EA}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -555,92 +666,421 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5F7244-9BAE-4E1D-8F27-72ECF4AB1E54}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83C9151-544F-490C-B1A0-E65BEB70B2D6}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D3D99-8BD6-4659-95DB-F22A3103F8B7}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFCE8DB-5177-4CEB-A6AD-2B4CB82C2BFA}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D40123B-2A01-4ECD-9568-A8CD0F129C28}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D10:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A237882-9E1E-40E8-979A-95BBB3B0F69B}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/04ExcelData/ChatTable.xlsx
+++ b/Assets/04ExcelData/ChatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Desktop\a\TeamPro\Assets\04ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kidbe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD1899FC-717E-4655-B76E-1028BD74F242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BABDA84-D237-443D-A217-D3DBFBF69DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A7A3A9F-5435-4295-936F-C40ED5633A40}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="1" activeTab="8" xr2:uid="{0A7A3A9F-5435-4295-936F-C40ED5633A40}"/>
   </bookViews>
   <sheets>
     <sheet name="ContaminatedMushrooms" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,58 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루미는 정말 오랫동안 그 고통 속에서 홀로 버텨왔을 거야.
-우리가 편지를 전하면… 이제 편히 쉴 수 있을지 몰라, 서두르자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건 숲을 오염시킨 바이러스야!
-루미를 괴롭혔던 불치병이 실체화된 건가 봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 나무... 이런 환경 속에서도 혼자 생기를 유지하고 있어.
-아마 루미가 마음이 약해질 때마다, 조용히 의지했던 희망이 표현된 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희망은 아주 작아도, 마음을 버티게 해 주는 원동력이야.
-과연 루미에게 그 희망은 무엇이었을까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루미가 항상 들고 다니던 토끼 인형 기억나?
-아마 여기서 뽑았었나 봐.
-그저 작은 인형일 뿐이지만, 루미에게는 둘도 없는 친구가 되어 주었겠지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄마가 곁에 없을 때, 이 인형이 루미의 마음을 지켜줬겠지,
-루미는 그렇게 외로운 시간을 견뎌 왔을 거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여긴 루미가 홀로 엄마를 기다리던 공원인가 봐,
-어? 저건 루미가 아끼는 인형 아니야?
-루미가 느꼈던 쓸쓸함이 저렇게 형상화 됐나 봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 인형은 루미의 외로움이 고스란히 담긴 기억일지도 몰라.
-다시 깨끗하고 따듯했던 모습으로 되돌려주자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기는 루미가 아프기 전 엄마랑 자주 오던 푸드 트럭이야.
-루미는 이 곳에서 엄마랑 함께 웃고, 맛있는 음식을 먹으며 짧지만 반짝이는 시간을 보냈던 것 같아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그땐 너무 당연했던 순간들...
-지금은 마음 깊숙이 간직된 그리움이 되어버렸겠지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 길... 원래는 루미의 엄마가 매일 쓸던 곳이래.
 루미가 편하게 다닐 수 있도록 깔끔하고 정성스럽게…</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,27 +71,85 @@
   <si>
     <t>하지만 지금은 이렇게...
 루미가 떠난 후, 그 손길도 함께 멈춰버린 거겠지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저기 봐! 통나무가 굴러 떨어지고 있어!
-마치 루미가 떠난 뒤 무너져 내린 루미 엄마의 마음이 저렇게 표현된 것 같아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아픔을 이겨내야 다시 앞으로 나아갈 수 있어.
-루미의 미련은 바로 남겨진 엄마의 행복이었던 거야!
-어서 루미의 마음과 용기를 전하러 가자!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드디어 도착했다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>여기가... 루미가 가장 사랑했던 곳이야.
 엄마와 함께 오래오래 웃으며 살고 싶었던 작지만 따듯한 집.
 자 이제 루미의 전하지 못한 마음을 전달하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루미는 정말 오랫동안 그 고통 속에서 홀로 버텨왔을 거야.
+우리가 편지를 전하면… 숲이 원래의 모습으로 돌아오면서 루미의 고통도 사라질지 몰라, 서두르자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저건 숲을 오염시킨 바이러스잖아!
+루미를 괴롭혔던 불치병이 실체화된 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리를 건너려면 이 녀석을 해치워야 해!
+루미를… 그리고 이 숲을 괴롭혔던 바이러스…
+우리가 혼내 주자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 나무... 이런 오염된 환경 속에서도 혼자 생기를 유지하고 있어.
+아마 루미의 마음이 약해질 때마다, 조용히 다독여주던 희망이 표현된 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비록 이 희망은 홀로 작게 남아있지만, 지금까지 루미의 마음을 버티게 해준 원동력이야.
+루미에게 있어서 이 희망은 무엇이었을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루미가 항상 들고 다니던 토끼 인형 기억나?
+아마 여기서 만난 것 같지?
+그저 작고 평범한 인형이지만, 루미에게는 둘도 없는 친구가 되어 주었겠지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마가 곁에 없을 때, 이 인형이 루미의 엄마를 대신해 루미를 지켜줬던 걸까?
+루미는 그렇게 인형과 함께 외로운 시간을 견뎌 온 걸지도 몰라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 루미가 홀로 엄마를 기다리던 공원인가 봐,
+어? 저건 루미가 아끼는 토끼 인형 아니야?
+저 모습…루미가 느꼈던 쓸쓸함이 느껴져…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 인형은 루미의 외로움이 고스란히 담긴 기억일지도 몰라.
+다시 따듯했던 본래의 모습으로 되돌려주자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기는 루미가 아프기 전 엄마랑 자주 오던 푸드 트럭이야.
+루미는 이 곳에서 엄마랑 함께 웃고, 맛있는 음식을 먹으며… 짧지만 행복한 시간을 보냈던 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그때는 너무나도 당연했던 일상들...
+지금은 마음 깊숙이 간직된 그리움이 되어버렸겠지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조심해! 통나무가 굴러 떨어지고 있어!
+마치 루미가 떠난 뒤 무너져 내린 루미 엄마의 마음 같아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이별의 아픔을 이겨내야 다시 앞으로 나아갈 수 있어.
+루미의 미련은 남겨진 엄마가 아픔없이 앞으로 행복하게 지내길 바라는 거야!
+어서 이 아픔을 돌파하고 루미의 따뜻한 마음을 전하러 가자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 도착했어!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,9 +221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +261,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -361,7 +367,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7F7EB6-7D3A-4E3D-B3AC-C8D2693EC301}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -563,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -575,6 +581,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994D6144-C4FB-4E81-9067-67B6CE00B143}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="88.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19A1D2A-F322-4AC3-A494-724E0704E1EA}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5F7244-9BAE-4E1D-8F27-72ECF4AB1E54}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="76.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83C9151-544F-490C-B1A0-E65BEB70B2D6}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -602,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -613,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -627,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -637,12 +835,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19A1D2A-F322-4AC3-A494-724E0704E1EA}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D3D99-8BD6-4659-95DB-F22A3103F8B7}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -666,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -677,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -691,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -701,12 +899,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5F7244-9BAE-4E1D-8F27-72ECF4AB1E54}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFCE8DB-5177-4CEB-A6AD-2B4CB82C2BFA}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -730,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -741,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -755,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -765,12 +963,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83C9151-544F-490C-B1A0-E65BEB70B2D6}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D40123B-2A01-4ECD-9568-A8CD0F129C28}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -794,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -805,10 +1003,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -819,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -829,12 +1027,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D3D99-8BD6-4659-95DB-F22A3103F8B7}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A237882-9E1E-40E8-979A-95BBB3B0F69B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -858,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -869,135 +1067,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFCE8DB-5177-4CEB-A6AD-2B4CB82C2BFA}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="76.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D40123B-2A01-4ECD-9568-A8CD0F129C28}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="76.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -1011,71 +1081,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A237882-9E1E-40E8-979A-95BBB3B0F69B}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="76.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
